--- a/Arkham crime wave.xlsx
+++ b/Arkham crime wave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KrzysztofLiedke\Documents\Tłumaczenia\Arkham-Crime-Wave---Polish-Translation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE037E1-16BE-4B44-89ED-5E417716C514}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054779D0-DED7-4E83-A8EB-EF35CC090E36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{009CE08C-4605-49FC-AA38-97370E64AD43}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{009CE08C-4605-49FC-AA38-97370E64AD43}"/>
   </bookViews>
   <sheets>
     <sheet name="Workplace" sheetId="1" r:id="rId1"/>
@@ -9467,9 +9467,6 @@
     <t>Pamiętasz, że gangster, Tony twierdził, że profesor Smith leżał w szpitalu i został wypisany przedwczoraj.</t>
   </si>
   <si>
-    <t>You check your notes on the victim that is in the morgue freezer.\nHe was killed roughly a week ago by being chopped to pieces by a sharp bladed weapon.\nHe is missing several ribs, his right leg and part of his spine.\nHis face is smashed to pieces.\n\nIn his jacket, you found a piece of paper ripped from a notebook.\nThe page has dark brown nicotine staining on it.\nThere were no nicotine stains on the remains of his teeth or fingers or on his clothes.\nOn the page there are traces of brownish ash from a cigar or a cigarette.\n</t>
-  </si>
-  <si>
     <t>Przeglądasz swoje notatki dotyczące zwłok z chłodni w kostnicy.\nMężczyzna zginął około tygodnia temu.\nPrzyczyną śmierci były liczne rany zadane ostrą bronią.\nCiało zostało pozbawione kilku żeber, prawej nogi i kawałka kręgosłupa.\nTwarz ofiary została zmiażdżona.\nW kurtce denata znalazłeś kawałek papieru wyrwany z notesu.\nKartka miała na sobie brązowe ślady od nikotyny.\nNa resztkach zębów, na palcach ani na ubraniach nie zauważyłeś jednak takich śladów - ofiara nie paliła.\nZauważyłeś też szare ślady popiołu pochodzącego z papierosa lub cygara.</t>
   </si>
   <si>
@@ -9477,6 +9474,9 @@
   </si>
   <si>
     <t>Tłum zaczyna się gromadzić wokół wejścia do sklepu.\nW miarę jak zbiera się coraz więcej osób, zauważasz, że niektórzy wchodzą do sklepu, by po chwili wyjść z transparentami wymalowanymi na kartonach.\nOstatecznie tłum blokuje cały wylot ulicy.\n\n&lt;i&gt;Umieść żeton Zamieszek we wskazanym miejscu. Możesz też użyć figurki, jednak nie traktuj jej jako potwora.\nZamieszek nie można zaatakować ani przesunąć.\n\nPomimo tego, że żeton nie zajmuje obu dolnych pól placy traktuj go jakby znajdował się na obu polach.\nJeśli Badacz będzie chciał opuścić pole zawierające żeton (lub figurkę) Zamieszek musi wybrać opcję Unik klikając najpierw na żeton Zamieszek w aplikacji.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>You check your notes on the victim that is in the morgue freezer.\nHe was killed roughly a week ago by being chopped to pieces by a sharp bladed weapon.\nHe is missing several ribs, his right leg and part of his spine.\nHis face is smashed to pieces.\n\nIn his jacket, you found a piece of paper ripped from a notebook.\nThe page has dark brown nicotine staining on it.\nThere were no nicotine stains on the remains of his teeth or fingers or on his clothes.\nOn the page there are traces of grey ash from a cigar or a cigarette.\n</t>
   </si>
 </sst>
 </file>
@@ -9860,8 +9860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09825953-8B8E-468B-BF74-651EBFE2570E}">
   <dimension ref="A1:E1583"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="C198" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A1328" workbookViewId="0">
+      <selection activeCell="A1340" sqref="A1340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12977,7 +12977,7 @@
         <v>368</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="D207">
         <f t="shared" si="3"/>
@@ -19308,7 +19308,7 @@
         <v>1016</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D628">
         <f t="shared" si="9"/>
@@ -30013,10 +30013,10 @@
         <v>2047</v>
       </c>
       <c r="B1340" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C1340" s="2" t="s">
         <v>3143</v>
-      </c>
-      <c r="C1340" s="2" t="s">
-        <v>3144</v>
       </c>
       <c r="D1340">
         <f t="shared" si="21"/>
@@ -33680,7 +33680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A59C93-892C-42B8-8EDF-036822C4E684}">
   <dimension ref="A1:B1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1565" workbookViewId="0">
+    <sheetView topLeftCell="A1565" workbookViewId="0">
       <selection activeCell="B1565" activeCellId="1" sqref="A1:A1048576 B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -35343,7 +35343,7 @@
         <v>367</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -38711,7 +38711,7 @@
         <v>1015</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="629" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -44407,7 +44407,7 @@
         <v>2047</v>
       </c>
       <c r="B1340" s="2" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1341" spans="1:2" x14ac:dyDescent="0.3">
